--- a/data-analysis/chpt01-scale-variable.xlsx
+++ b/data-analysis/chpt01-scale-variable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\course-stat\data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224BAF60-9EFB-44DF-ADD8-419E388A76B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119BC26A-B76A-487B-9D7C-A11B4D59FFAE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>属性特征</t>
   </si>
@@ -85,19 +85,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$\ast$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>character</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\( \checkmark \)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\(\checkmark\)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +114,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Source Sans Pro Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,8 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -417,15 +427,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -457,120 +473,134 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
-        <v>18</v>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>